--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.931376</v>
+        <v>1.169591333333333</v>
       </c>
       <c r="H2">
-        <v>8.794128000000001</v>
+        <v>3.508774</v>
       </c>
       <c r="I2">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="J2">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>126.660156</v>
+        <v>106.5570066666667</v>
       </c>
       <c r="N2">
-        <v>379.980468</v>
+        <v>319.67102</v>
       </c>
       <c r="O2">
-        <v>0.9724734733029194</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="P2">
-        <v>0.9724734733029196</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="Q2">
-        <v>371.2885414546561</v>
+        <v>124.6281515032755</v>
       </c>
       <c r="R2">
-        <v>3341.596873091904</v>
+        <v>1121.65336352948</v>
       </c>
       <c r="S2">
-        <v>0.1219111517426267</v>
+        <v>0.05350926261232156</v>
       </c>
       <c r="T2">
-        <v>0.1219111517426267</v>
+        <v>0.05350926261232156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.931376</v>
+        <v>1.169591333333333</v>
       </c>
       <c r="H3">
-        <v>8.794128000000001</v>
+        <v>3.508774</v>
       </c>
       <c r="I3">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="J3">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>0.249583</v>
       </c>
       <c r="N3">
-        <v>0.7487490000000001</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O3">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="P3">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="Q3">
-        <v>0.7316216162080001</v>
+        <v>0.2919101137473333</v>
       </c>
       <c r="R3">
-        <v>6.584594545872001</v>
+        <v>2.627191023726</v>
       </c>
       <c r="S3">
-        <v>0.0002402251185083019</v>
+        <v>0.0001253319955988289</v>
       </c>
       <c r="T3">
-        <v>0.0002402251185083019</v>
+        <v>0.0001253319955988289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.931376</v>
+        <v>1.169591333333333</v>
       </c>
       <c r="H4">
-        <v>8.794128000000001</v>
+        <v>3.508774</v>
       </c>
       <c r="I4">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="J4">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.048924</v>
+        <v>3.632925333333334</v>
       </c>
       <c r="N4">
-        <v>3.146772</v>
+        <v>10.898776</v>
       </c>
       <c r="O4">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="P4">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="Q4">
-        <v>3.074790639424</v>
+        <v>4.249037984513778</v>
       </c>
       <c r="R4">
-        <v>27.673115754816</v>
+        <v>38.241341860624</v>
       </c>
       <c r="S4">
-        <v>0.001009595574242645</v>
+        <v>0.001824330110176604</v>
       </c>
       <c r="T4">
-        <v>0.001009595574242645</v>
+        <v>0.001824330110176604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.931376</v>
+        <v>1.169591333333333</v>
       </c>
       <c r="H5">
-        <v>8.794128000000001</v>
+        <v>3.508774</v>
       </c>
       <c r="I5">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="J5">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7639916666666666</v>
+        <v>0.7472223333333332</v>
       </c>
       <c r="N5">
-        <v>2.291975</v>
+        <v>2.241667</v>
       </c>
       <c r="O5">
-        <v>0.005865788051435997</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="P5">
-        <v>0.005865788051435998</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="Q5">
-        <v>2.239546835866667</v>
+        <v>0.8739447651397776</v>
       </c>
       <c r="R5">
-        <v>20.1559215228</v>
+        <v>7.865502886257999</v>
       </c>
       <c r="S5">
-        <v>0.0007353465126405046</v>
+        <v>0.0003752293473220532</v>
       </c>
       <c r="T5">
-        <v>0.0007353465126405046</v>
+        <v>0.0003752293473220532</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.931376</v>
+        <v>1.169591333333333</v>
       </c>
       <c r="H6">
-        <v>8.794128000000001</v>
+        <v>3.508774</v>
       </c>
       <c r="I6">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="J6">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.522703666666667</v>
+        <v>0.2105813333333333</v>
       </c>
       <c r="N6">
-        <v>4.568111</v>
+        <v>0.631744</v>
       </c>
       <c r="O6">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="P6">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="Q6">
-        <v>4.463616983578667</v>
+        <v>0.2462941024284444</v>
       </c>
       <c r="R6">
-        <v>40.172552852208</v>
+        <v>2.216646921856</v>
       </c>
       <c r="S6">
-        <v>0.001465611314785165</v>
+        <v>0.0001057467004664935</v>
       </c>
       <c r="T6">
-        <v>0.001465611314785165</v>
+        <v>0.0001057467004664935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>15.660848</v>
       </c>
       <c r="I7">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="J7">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>126.660156</v>
+        <v>106.5570066666667</v>
       </c>
       <c r="N7">
-        <v>379.980468</v>
+        <v>319.67102</v>
       </c>
       <c r="O7">
-        <v>0.9724734733029194</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="P7">
-        <v>0.9724734733029196</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="Q7">
-        <v>661.2018169240961</v>
+        <v>556.2576949138845</v>
       </c>
       <c r="R7">
-        <v>5950.816352316864</v>
+        <v>5006.31925422496</v>
       </c>
       <c r="S7">
-        <v>0.21710305068862</v>
+        <v>0.2388299811739516</v>
       </c>
       <c r="T7">
-        <v>0.21710305068862</v>
+        <v>0.2388299811739516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>15.660848</v>
       </c>
       <c r="I8">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="J8">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,13 +933,13 @@
         <v>0.249583</v>
       </c>
       <c r="N8">
-        <v>0.7487490000000001</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O8">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="P8">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="Q8">
         <v>1.302893808794667</v>
@@ -948,10 +948,10 @@
         <v>11.726044279152</v>
       </c>
       <c r="S8">
-        <v>0.000427800126031882</v>
+        <v>0.0005593991897483078</v>
       </c>
       <c r="T8">
-        <v>0.000427800126031882</v>
+        <v>0.0005593991897483076</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>15.660848</v>
       </c>
       <c r="I9">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="J9">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.048924</v>
+        <v>3.632925333333334</v>
       </c>
       <c r="N9">
-        <v>3.146772</v>
+        <v>10.898776</v>
       </c>
       <c r="O9">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="P9">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="Q9">
-        <v>5.475679775850667</v>
+        <v>18.96489714689423</v>
       </c>
       <c r="R9">
-        <v>49.281117982656</v>
+        <v>170.684074322048</v>
       </c>
       <c r="S9">
-        <v>0.001797918205157666</v>
+        <v>0.008142603814693982</v>
       </c>
       <c r="T9">
-        <v>0.001797918205157666</v>
+        <v>0.008142603814693981</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>15.660848</v>
       </c>
       <c r="I10">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="J10">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7639916666666666</v>
+        <v>0.7472223333333332</v>
       </c>
       <c r="N10">
-        <v>2.291975</v>
+        <v>2.241667</v>
       </c>
       <c r="O10">
-        <v>0.005865788051435997</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="P10">
-        <v>0.005865788051435998</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="Q10">
-        <v>3.988252454977778</v>
+        <v>3.900711794846222</v>
       </c>
       <c r="R10">
-        <v>35.89427209479999</v>
+        <v>35.10640615361599</v>
       </c>
       <c r="S10">
-        <v>0.00130952721654643</v>
+        <v>0.001674775797343996</v>
       </c>
       <c r="T10">
-        <v>0.00130952721654643</v>
+        <v>0.001674775797343996</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>15.660848</v>
       </c>
       <c r="I11">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="J11">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.522703666666667</v>
+        <v>0.2105813333333333</v>
       </c>
       <c r="N11">
-        <v>4.568111</v>
+        <v>0.631744</v>
       </c>
       <c r="O11">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="P11">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="Q11">
-        <v>7.948943557569778</v>
+        <v>1.099294084323555</v>
       </c>
       <c r="R11">
-        <v>71.54049201812799</v>
+        <v>9.893646758911999</v>
       </c>
       <c r="S11">
-        <v>0.002610004769993184</v>
+        <v>0.0004719833772443836</v>
       </c>
       <c r="T11">
-        <v>0.002610004769993184</v>
+        <v>0.0004719833772443835</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.882553333333334</v>
+        <v>4.885583666666666</v>
       </c>
       <c r="H12">
-        <v>20.64766</v>
+        <v>14.656751</v>
       </c>
       <c r="I12">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="J12">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>126.660156</v>
+        <v>106.5570066666667</v>
       </c>
       <c r="N12">
-        <v>379.980468</v>
+        <v>319.67102</v>
       </c>
       <c r="O12">
-        <v>0.9724734733029194</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="P12">
-        <v>0.9724734733029196</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="Q12">
-        <v>871.7452788783202</v>
+        <v>520.5931713395578</v>
       </c>
       <c r="R12">
-        <v>7845.707509904882</v>
+        <v>4685.33854205602</v>
       </c>
       <c r="S12">
-        <v>0.2862341793740282</v>
+        <v>0.2235173705409373</v>
       </c>
       <c r="T12">
-        <v>0.2862341793740282</v>
+        <v>0.2235173705409373</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.882553333333334</v>
+        <v>4.885583666666666</v>
       </c>
       <c r="H13">
-        <v>20.64766</v>
+        <v>14.656751</v>
       </c>
       <c r="I13">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="J13">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>0.249583</v>
       </c>
       <c r="N13">
-        <v>0.7487490000000001</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O13">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="P13">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="Q13">
-        <v>1.717768308593334</v>
+        <v>1.219358628277667</v>
       </c>
       <c r="R13">
-        <v>15.45991477734</v>
+        <v>10.974227654499</v>
       </c>
       <c r="S13">
-        <v>0.0005640225580545478</v>
+        <v>0.0005235332488855456</v>
       </c>
       <c r="T13">
-        <v>0.000564022558054548</v>
+        <v>0.0005235332488855455</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.882553333333334</v>
+        <v>4.885583666666666</v>
       </c>
       <c r="H14">
-        <v>20.64766</v>
+        <v>14.656751</v>
       </c>
       <c r="I14">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="J14">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.048924</v>
+        <v>3.632925333333334</v>
       </c>
       <c r="N14">
-        <v>3.146772</v>
+        <v>10.898776</v>
       </c>
       <c r="O14">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="P14">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="Q14">
-        <v>7.219275372613334</v>
+        <v>17.74896067075289</v>
       </c>
       <c r="R14">
-        <v>64.97347835352001</v>
+        <v>159.740646036776</v>
       </c>
       <c r="S14">
-        <v>0.002370421053055731</v>
+        <v>0.007620539871379878</v>
       </c>
       <c r="T14">
-        <v>0.002370421053055731</v>
+        <v>0.007620539871379878</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.882553333333334</v>
+        <v>4.885583666666666</v>
       </c>
       <c r="H15">
-        <v>20.64766</v>
+        <v>14.656751</v>
       </c>
       <c r="I15">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="J15">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7639916666666666</v>
+        <v>0.7472223333333332</v>
       </c>
       <c r="N15">
-        <v>2.291975</v>
+        <v>2.241667</v>
       </c>
       <c r="O15">
-        <v>0.005865788051435997</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="P15">
-        <v>0.005865788051435998</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="Q15">
-        <v>5.258213392055556</v>
+        <v>3.650617227101888</v>
       </c>
       <c r="R15">
-        <v>47.3239205285</v>
+        <v>32.85555504391699</v>
       </c>
       <c r="S15">
-        <v>0.001726513961951298</v>
+        <v>0.001567397362039234</v>
       </c>
       <c r="T15">
-        <v>0.001726513961951298</v>
+        <v>0.001567397362039234</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.882553333333334</v>
+        <v>4.885583666666666</v>
       </c>
       <c r="H16">
-        <v>20.64766</v>
+        <v>14.656751</v>
       </c>
       <c r="I16">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="J16">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.522703666666667</v>
+        <v>0.2105813333333333</v>
       </c>
       <c r="N16">
-        <v>4.568111</v>
+        <v>0.631744</v>
       </c>
       <c r="O16">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="P16">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="Q16">
-        <v>10.48008919669556</v>
+        <v>1.028812722638222</v>
       </c>
       <c r="R16">
-        <v>94.32080277026002</v>
+        <v>9.259314503743999</v>
       </c>
       <c r="S16">
-        <v>0.003441096618088463</v>
+        <v>0.0004417221108595138</v>
       </c>
       <c r="T16">
-        <v>0.003441096618088463</v>
+        <v>0.0004417221108595138</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.08978</v>
+        <v>2.891468666666666</v>
       </c>
       <c r="H17">
-        <v>9.26934</v>
+        <v>8.674405999999999</v>
       </c>
       <c r="I17">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="J17">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>126.660156</v>
+        <v>106.5570066666667</v>
       </c>
       <c r="N17">
-        <v>379.980468</v>
+        <v>319.67102</v>
       </c>
       <c r="O17">
-        <v>0.9724734733029194</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="P17">
-        <v>0.9724734733029196</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="Q17">
-        <v>391.35201680568</v>
+        <v>308.1062459904578</v>
       </c>
       <c r="R17">
-        <v>3522.16815125112</v>
+        <v>2772.95621391412</v>
       </c>
       <c r="S17">
-        <v>0.1284989160146406</v>
+        <v>0.1322858265194332</v>
       </c>
       <c r="T17">
-        <v>0.1284989160146406</v>
+        <v>0.1322858265194332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.08978</v>
+        <v>2.891468666666666</v>
       </c>
       <c r="H18">
-        <v>9.26934</v>
+        <v>8.674405999999999</v>
       </c>
       <c r="I18">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="J18">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>0.249583</v>
       </c>
       <c r="N18">
-        <v>0.7487490000000001</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O18">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="P18">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="Q18">
-        <v>0.77115656174</v>
+        <v>0.7216614242326665</v>
       </c>
       <c r="R18">
-        <v>6.940409055660001</v>
+        <v>6.494952818093998</v>
       </c>
       <c r="S18">
-        <v>0.0002532062644521143</v>
+        <v>0.0003098462923558073</v>
       </c>
       <c r="T18">
-        <v>0.0002532062644521143</v>
+        <v>0.0003098462923558072</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.08978</v>
+        <v>2.891468666666666</v>
       </c>
       <c r="H19">
-        <v>9.26934</v>
+        <v>8.674405999999999</v>
       </c>
       <c r="I19">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="J19">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.048924</v>
+        <v>3.632925333333334</v>
       </c>
       <c r="N19">
-        <v>3.146772</v>
+        <v>10.898776</v>
       </c>
       <c r="O19">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="P19">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="Q19">
-        <v>3.24094439672</v>
+        <v>10.50448976967289</v>
       </c>
       <c r="R19">
-        <v>29.16849957048</v>
+        <v>94.54040792705601</v>
       </c>
       <c r="S19">
-        <v>0.001064151515664807</v>
+        <v>0.004510116654334705</v>
       </c>
       <c r="T19">
-        <v>0.001064151515664807</v>
+        <v>0.004510116654334704</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.08978</v>
+        <v>2.891468666666666</v>
       </c>
       <c r="H20">
-        <v>9.26934</v>
+        <v>8.674405999999999</v>
       </c>
       <c r="I20">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="J20">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7639916666666666</v>
+        <v>0.7472223333333332</v>
       </c>
       <c r="N20">
-        <v>2.291975</v>
+        <v>2.241667</v>
       </c>
       <c r="O20">
-        <v>0.005865788051435997</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="P20">
-        <v>0.005865788051435998</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="Q20">
-        <v>2.360566171833333</v>
+        <v>2.160569963866888</v>
       </c>
       <c r="R20">
-        <v>21.2450955465</v>
+        <v>19.445129674802</v>
       </c>
       <c r="S20">
-        <v>0.0007750827419704527</v>
+        <v>0.0009276435876994364</v>
       </c>
       <c r="T20">
-        <v>0.0007750827419704528</v>
+        <v>0.0009276435876994362</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.08978</v>
+        <v>2.891468666666666</v>
       </c>
       <c r="H21">
-        <v>9.26934</v>
+        <v>8.674405999999999</v>
       </c>
       <c r="I21">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="J21">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.522703666666667</v>
+        <v>0.2105813333333333</v>
       </c>
       <c r="N21">
-        <v>4.568111</v>
+        <v>0.631744</v>
       </c>
       <c r="O21">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="P21">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="Q21">
-        <v>4.704819335193333</v>
+        <v>0.6088893271182221</v>
       </c>
       <c r="R21">
-        <v>42.34337401674</v>
+        <v>5.480003944063999</v>
       </c>
       <c r="S21">
-        <v>0.001544809170913901</v>
+        <v>0.000261427442464734</v>
       </c>
       <c r="T21">
-        <v>0.001544809170913901</v>
+        <v>0.0002614274424647339</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.259310999999999</v>
+        <v>6.741071666666667</v>
       </c>
       <c r="H22">
-        <v>15.777933</v>
+        <v>20.223215</v>
       </c>
       <c r="I22">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="J22">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>126.660156</v>
+        <v>106.5570066666667</v>
       </c>
       <c r="N22">
-        <v>379.980468</v>
+        <v>319.67102</v>
       </c>
       <c r="O22">
-        <v>0.9724734733029194</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="P22">
-        <v>0.9724734733029196</v>
+        <v>0.956549115742331</v>
       </c>
       <c r="Q22">
-        <v>666.1451517125161</v>
+        <v>718.3084185254778</v>
       </c>
       <c r="R22">
-        <v>5995.306365412644</v>
+        <v>6464.7757667293</v>
       </c>
       <c r="S22">
-        <v>0.2187261754830038</v>
+        <v>0.3084066748956873</v>
       </c>
       <c r="T22">
-        <v>0.2187261754830039</v>
+        <v>0.3084066748956873</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.259310999999999</v>
+        <v>6.741071666666667</v>
       </c>
       <c r="H23">
-        <v>15.777933</v>
+        <v>20.223215</v>
       </c>
       <c r="I23">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="J23">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,25 +1863,25 @@
         <v>0.249583</v>
       </c>
       <c r="N23">
-        <v>0.7487490000000001</v>
+        <v>0.7487489999999999</v>
       </c>
       <c r="O23">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="P23">
-        <v>0.001916252549754972</v>
+        <v>0.002240475830004717</v>
       </c>
       <c r="Q23">
-        <v>1.312634617313</v>
+        <v>1.682456889781667</v>
       </c>
       <c r="R23">
-        <v>11.813711555817</v>
+        <v>15.142112008035</v>
       </c>
       <c r="S23">
-        <v>0.000430998482708126</v>
+        <v>0.0007223651034162277</v>
       </c>
       <c r="T23">
-        <v>0.0004309984827081261</v>
+        <v>0.0007223651034162276</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.259310999999999</v>
+        <v>6.741071666666667</v>
       </c>
       <c r="H24">
-        <v>15.777933</v>
+        <v>20.223215</v>
       </c>
       <c r="I24">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="J24">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.048924</v>
+        <v>3.632925333333334</v>
       </c>
       <c r="N24">
-        <v>3.146772</v>
+        <v>10.898776</v>
       </c>
       <c r="O24">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="P24">
-        <v>0.008053446306435872</v>
+        <v>0.03261232296087941</v>
       </c>
       <c r="Q24">
-        <v>5.516617531363999</v>
+        <v>24.48981003164889</v>
       </c>
       <c r="R24">
-        <v>49.649557782276</v>
+        <v>220.40829028484</v>
       </c>
       <c r="S24">
-        <v>0.001811359958315023</v>
+        <v>0.01051473251029424</v>
       </c>
       <c r="T24">
-        <v>0.001811359958315023</v>
+        <v>0.01051473251029424</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.259310999999999</v>
+        <v>6.741071666666667</v>
       </c>
       <c r="H25">
-        <v>15.777933</v>
+        <v>20.223215</v>
       </c>
       <c r="I25">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="J25">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7639916666666666</v>
+        <v>0.7472223333333332</v>
       </c>
       <c r="N25">
-        <v>2.291975</v>
+        <v>2.241667</v>
       </c>
       <c r="O25">
-        <v>0.005865788051435997</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="P25">
-        <v>0.005865788051435998</v>
+        <v>0.006707722791508481</v>
       </c>
       <c r="Q25">
-        <v>4.018069776408333</v>
+        <v>5.037079299933888</v>
       </c>
       <c r="R25">
-        <v>36.16262798767499</v>
+        <v>45.33371369940499</v>
       </c>
       <c r="S25">
-        <v>0.001319317618327313</v>
+        <v>0.002162676697103762</v>
       </c>
       <c r="T25">
-        <v>0.001319317618327313</v>
+        <v>0.002162676697103762</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.259310999999999</v>
+        <v>6.741071666666667</v>
       </c>
       <c r="H26">
-        <v>15.777933</v>
+        <v>20.223215</v>
       </c>
       <c r="I26">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="J26">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.522703666666667</v>
+        <v>0.2105813333333333</v>
       </c>
       <c r="N26">
-        <v>4.568111</v>
+        <v>0.631744</v>
       </c>
       <c r="O26">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="P26">
-        <v>0.01169103978945379</v>
+        <v>0.001890362675276361</v>
       </c>
       <c r="Q26">
-        <v>8.008372143840333</v>
+        <v>1.419543859662222</v>
       </c>
       <c r="R26">
-        <v>72.075349294563</v>
+        <v>12.77589473696</v>
       </c>
       <c r="S26">
-        <v>0.002629517915673076</v>
+        <v>0.0006094830442412362</v>
       </c>
       <c r="T26">
-        <v>0.002629517915673076</v>
+        <v>0.0006094830442412362</v>
       </c>
     </row>
   </sheetData>
